--- a/files/bom_aluminium.xlsx
+++ b/files/bom_aluminium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AA1BD3-EE06-4013-A7D3-94AF6145989C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE701FA1-D834-47A0-8B00-A3AD0897334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{818E406A-7C7C-4664-AA79-8C632D327B8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>section_ata</t>
   </si>
@@ -48,9 +48,6 @@
     <t>kode_warna</t>
   </si>
   <si>
-    <t>deskripsi_warna</t>
-  </si>
-  <si>
     <t>ukuran</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>keterangan</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>satuan</t>
   </si>
   <si>
@@ -72,40 +66,16 @@
     <t>01</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
     <t>51055A</t>
   </si>
   <si>
-    <t>CARBON BLACK / SBM</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
-    <t>SIGNAL WHITE / RALL 9003</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>05</t>
-  </si>
-  <si>
-    <t>CREAM 301 P</t>
-  </si>
-  <si>
-    <t>ALLURE GRAPHITE SLATE / ALESTA AD MIDNIGHT METALLIC NC 72765</t>
-  </si>
-  <si>
-    <t>BROWN PB 20 SMO 1223814</t>
-  </si>
-  <si>
-    <t>ALESTA AD DARK BLUE METALIC SANDY SM2</t>
-  </si>
-  <si>
-    <t>ALLURE ROYAL TAUPE / ALESTA AD GOLD SPARK MATT NC81114</t>
   </si>
 </sst>
 </file>
@@ -173,7 +143,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,14 +151,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -507,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99428C4-5581-49DE-863B-371A99852000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,11 +482,10 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,19 +502,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>70228</v>
       </c>
@@ -561,26 +521,20 @@
       <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
         <v>5800</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>70228</v>
       </c>
@@ -590,28 +544,22 @@
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6000</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>219007</v>
@@ -622,23 +570,17 @@
       <c r="D4" s="2">
         <v>32</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <v>6000</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>70220</v>
       </c>
@@ -648,28 +590,22 @@
       <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>6000</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>221005</v>
@@ -677,28 +613,22 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
         <v>6000</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>227017</v>
@@ -706,28 +636,22 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2">
         <v>5800</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>227023</v>
@@ -735,25 +659,22 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>107</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="2">
         <v>5800</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>229014</v>
@@ -761,23 +682,20 @@
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>54</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="2">
         <v>5600</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10411</v>
       </c>
@@ -787,19 +705,16 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>44</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="2">
         <v>6000</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10">
         <v>15</v>
       </c>
     </row>

--- a/files/bom_aluminium.xlsx
+++ b/files/bom_aluminium.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE701FA1-D834-47A0-8B00-A3AD0897334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EDD18B-45E9-4B75-A5BA-5E51462F0130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{818E406A-7C7C-4664-AA79-8C632D327B8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>section_ata</t>
   </si>
@@ -72,10 +72,10 @@
     <t>02</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>id_brand</t>
   </si>
 </sst>
 </file>
@@ -143,15 +143,12 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,250 +468,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99428C4-5581-49DE-863B-371A99852000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>70228</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="1">
         <v>229001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="1">
         <v>5800</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>70228</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="1">
         <v>229001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="1">
         <v>6000</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="1">
         <v>219007</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="1">
         <v>32</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="1">
         <v>6000</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
         <v>70220</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="1">
         <v>201010</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="1">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="1">
         <v>6000</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>221005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
-        <v>221005</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="F6" s="1">
         <v>6000</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6">
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>227017</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="2">
         <v>38</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="1">
         <v>5800</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>227023</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="2">
         <v>107</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="1">
         <v>5800</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8">
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>229014</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="2">
         <v>54</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="1">
         <v>5600</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9">
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
         <v>10411</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="1">
         <v>250015</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="2">
         <v>44</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="1">
         <v>6000</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10">
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
     </row>
